--- a/data/trans_bre/P25A_7_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25A_7_R2-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +584,42 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>3,61</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,97</t>
+          <t>7,16</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,97</t>
+          <t>9,09</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>49,22</t>
+          <t>17,34</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>79,32%</t>
+          <t>9,72</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>250,72%</t>
+          <t>5,75</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>526,02%</t>
+          <t>117,68%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>155,53%</t>
+          <t>211,39%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>465,27%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>471,48%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>137,66%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>86,01%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 7,84</t>
+          <t>-1,5; 9,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,76; 15,76</t>
+          <t>1,72; 14,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,35; 19,11</t>
+          <t>3,23; 16,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>19,85; 76,37</t>
+          <t>9,09; 25,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-52,59; 589,52</t>
+          <t>1,39; 17,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>33,74; 1211,53</t>
+          <t>-1,97; 13,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>30,03; —</t>
+          <t>-49,85; 804,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>34,71; 919,46</t>
+          <t>15,41; 1151,46</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-3,45; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>107,84; 2428,31</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>5,76; 477,51</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-27,58; 398,83</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10,76</t>
+          <t>10,01</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,41</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-19,02</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>290,7%</t>
+          <t>7,66</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>66,43%</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>22,95%</t>
+          <t>241,53%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-23,26%</t>
+          <t>62,89%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>18,26%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>10,3%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>84,65%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-5,99%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,19; 16,63</t>
+          <t>3,92; 16,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 8,53</t>
+          <t>-1,76; 8,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 8,38</t>
+          <t>-8,34; 8,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-37,84; 3,96</t>
+          <t>-7,73; 10,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>72,69; 919,68</t>
+          <t>-0,36; 14,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-28,07; 289,84</t>
+          <t>-15,46; 8,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-48,8; 121,64</t>
+          <t>41,71; 719,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-43,03; 3,77</t>
+          <t>-28,46; 281,77</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-47,63; 130,33</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-37,18; 121,28</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-5,29; 274,61</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-62,08; 85,38</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,52</t>
+          <t>4,67</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,48</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,91</t>
+          <t>5,94</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,46</t>
+          <t>6,98</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>102,32%</t>
+          <t>15,12</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>68,42%</t>
+          <t>11,78</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>73,94%</t>
+          <t>66,01%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>61,06%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>74,84%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>52,78%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>151,6%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>125,49%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,33; 13,15</t>
+          <t>-0,36; 9,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 8,97</t>
+          <t>0,43; 8,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 10,52</t>
+          <t>1,32; 10,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-14,22; 26,2</t>
+          <t>-0,14; 13,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,32; 287,99</t>
+          <t>7,45; 22,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,36; 207,31</t>
+          <t>6,53; 18,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,06; 178,82</t>
+          <t>-11,01; 193,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 48,35</t>
+          <t>4,1; 191,39</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>12,71; 190,11</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-1,67; 137,09</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>47,51; 328,08</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>50,48; 286,45</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,73</t>
+          <t>10,98</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,38</t>
+          <t>7,15</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,71</t>
+          <t>8,46</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,28</t>
+          <t>6,73</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>113,85%</t>
+          <t>11,4</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>66,66%</t>
+          <t>10,03</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>60,49%</t>
+          <t>112,76%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>63,38%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>57,29%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>31,42%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>61,63%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>67,11%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,81; 16,48</t>
+          <t>4,0; 16,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,72; 12,76</t>
+          <t>2,09; 12,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,09; 14,8</t>
+          <t>1,47; 14,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,29; 19,62</t>
+          <t>-1,85; 15,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,53; 242,07</t>
+          <t>3,37; 19,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,71; 147,27</t>
+          <t>0,76; 16,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,48; 132,93</t>
+          <t>25,06; 233,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-18,63; 40,43</t>
+          <t>13,66; 144,58</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>6,45; 130,3</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-8,4; 88,29</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>15,19; 137,41</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-1,97; 145,73</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>13,69</t>
+          <t>14,35</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>14,07</t>
+          <t>14,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>9,9</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>95,26%</t>
+          <t>8,45</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>116,86%</t>
+          <t>16,48</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>17,58%</t>
+          <t>97,16%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>113,59%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>17,59%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>34,82%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>30,31%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>100,99%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,51; 21,21</t>
+          <t>6,5; 21,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,77; 21,34</t>
+          <t>7,34; 20,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 10,02</t>
+          <t>-3,85; 9,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-13,02; 14,22</t>
+          <t>0,57; 19,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>29,21; 190,34</t>
+          <t>-1,33; 17,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>41,45; 227,37</t>
+          <t>8,14; 24,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-17,05; 66,34</t>
+          <t>37,86; 185,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-15,95; 22,15</t>
+          <t>47,15; 221,88</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-17,74; 65,86</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>2,01; 86,86</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-5,42; 76,07</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>40,36; 191,21</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>17,67</t>
+          <t>17,86</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>18,12</t>
+          <t>18,78</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>18,76</t>
+          <t>20,97</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>14,82</t>
+          <t>16,14</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>103,63%</t>
+          <t>16,33</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>157,27%</t>
+          <t>10,85</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>118,29%</t>
+          <t>102,23%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>34,33%</t>
+          <t>164,85%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>136,36%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>133,35%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>102,52%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>66,21%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,96; 27,62</t>
+          <t>7,88; 26,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,61; 25,65</t>
+          <t>10,62; 26,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,48; 28,08</t>
+          <t>12,08; 30,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 34,6</t>
+          <t>5,49; 25,85</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>31,48; 228,3</t>
+          <t>6,06; 25,36</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>45,64; 337,78</t>
+          <t>0,72; 21,61</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>37,09; 236,39</t>
+          <t>30,6; 220,12</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 117,92</t>
+          <t>57,45; 338,13</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>49,89; 269,9</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>35,55; 303,89</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>27,56; 211,62</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-0,81; 172,61</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>11,17</t>
+          <t>11,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>9,53</t>
+          <t>9,4</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,78</t>
+          <t>8,97</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,48</t>
+          <t>9,88</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>125,24%</t>
+          <t>12,27</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>115,93%</t>
+          <t>9,44</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>77,11%</t>
+          <t>118,73%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>112,44%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>78,2%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>62,5%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>84,07%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>71,32%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,21; 13,89</t>
+          <t>7,87; 13,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,3; 12,04</t>
+          <t>7,0; 12,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,96; 11,83</t>
+          <t>5,65; 11,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 12,29</t>
+          <t>5,95; 13,3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>76,23; 179,18</t>
+          <t>8,32; 15,54</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>78,28; 168,91</t>
+          <t>5,49; 13,09</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>45,05; 121,49</t>
+          <t>73,08; 174,1</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 21,59</t>
+          <t>73,01; 171,68</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>43,07; 118,83</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>33,06; 93,38</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>50,13; 121,28</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>35,78; 118,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
